--- a/Datasett/Nye datasett/Avfallspunkter.xlsx
+++ b/Datasett/Nye datasett/Avfallspunkter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malin\Documents\Project_Y\Datasett\Nye datasett\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A4E739-642B-48AE-A608-1894CAE9FCB8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD56D5E-6C0C-43A0-A4DF-41A89547A98D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1139,7 +1139,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
